--- a/Game Balance.xlsx
+++ b/Game Balance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\编程\Projects\Sunaba\Defender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EDA599-C8B1-48B4-860D-5F32E4178299}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2079C-2945-4362-B6C4-7AD670FF9A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{6AD152CE-BB64-4651-A9EB-E7D9A01DA758}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -209,7 +209,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -221,7 +221,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="180" formatCode="0.0_ "/>
+      <numFmt numFmtId="176" formatCode="0.0_ "/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
